--- a/import.xlsx
+++ b/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Господин\Desktop\magnit_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABD2CB1-6690-4CA4-8E21-EA9BD2416CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B77708-862E-4EAB-91F6-5A2DBDD45AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="5580" windowWidth="11850" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Сидоров</t>
   </si>
   <si>
-    <t>Остапов</t>
-  </si>
-  <si>
     <t>Шевченко</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>semenov@mail.ru</t>
+  </si>
+  <si>
+    <t>Андреев</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -584,22 +584,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,19 +610,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -630,22 +630,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -653,25 +653,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,25 +679,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,25 +705,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Господин\Desktop\magnit_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B77708-862E-4EAB-91F6-5A2DBDD45AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F831680F-12F0-4048-B338-8EC10F6867C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="5580" windowWidth="11850" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -60,15 +60,9 @@
     <t>petron@gmail.com</t>
   </si>
   <si>
-    <t>+7 (888) 228-88-88</t>
-  </si>
-  <si>
     <t>Юрий</t>
   </si>
   <si>
-    <t>+7 (777) 227-77-77</t>
-  </si>
-  <si>
     <t>sidorov@mail.ru</t>
   </si>
   <si>
@@ -78,21 +72,12 @@
     <t>Андреевич</t>
   </si>
   <si>
-    <t>+7 (666) 226-66-66</t>
-  </si>
-  <si>
-    <t>+7 (999) 299-99-99</t>
-  </si>
-  <si>
     <t>Юлия</t>
   </si>
   <si>
     <t>Алексеевна</t>
   </si>
   <si>
-    <t>+7 (555) 225-55-55</t>
-  </si>
-  <si>
     <t>shevchenko@gmail.com</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>Владимиров</t>
   </si>
   <si>
-    <t>+7 (444) 224-44-44</t>
-  </si>
-  <si>
     <t>vladimirov@gmail.com</t>
   </si>
   <si>
@@ -171,13 +153,31 @@
     <t>Славянск</t>
   </si>
   <si>
-    <t>+7 (333) 223-33-33</t>
-  </si>
-  <si>
     <t>semenov@mail.ru</t>
   </si>
   <si>
     <t>Андреев</t>
+  </si>
+  <si>
+    <t>+7 (888) 2288888</t>
+  </si>
+  <si>
+    <t>+7 (777) 2277777</t>
+  </si>
+  <si>
+    <t>+7 (666) 2266666</t>
+  </si>
+  <si>
+    <t>+7 (555) 2255555</t>
+  </si>
+  <si>
+    <t>+7 (444) 2244444</t>
+  </si>
+  <si>
+    <t>+7 (333) 2233333</t>
+  </si>
+  <si>
+    <t>+7 (999) 2299999</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -590,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
@@ -610,19 +610,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -630,22 +630,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -656,22 +656,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,25 +679,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,25 +705,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
